--- a/data/trans_orig/P21D6_2023-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P21D6_2023-Dificultad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>174302</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>162230</v>
+        <v>163120</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>182243</v>
+        <v>182269</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.8870677436856755</v>
+        <v>0.8870677436856756</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8256292496287804</v>
+        <v>0.8301598328855411</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.927482410230158</v>
+        <v>0.9276151486987971</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>318</v>
@@ -762,19 +762,19 @@
         <v>230525</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>220490</v>
+        <v>221228</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>238974</v>
+        <v>240310</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.8567239170936867</v>
+        <v>0.8567239170936868</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.8194290297726395</v>
+        <v>0.822172189474244</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8881251413030818</v>
+        <v>0.8930898995679681</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>486</v>
@@ -783,19 +783,19 @@
         <v>404826</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>389066</v>
+        <v>388402</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>415929</v>
+        <v>416980</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.8695304594617823</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.8356788128915505</v>
+        <v>0.8342512520099792</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8933780438239197</v>
+        <v>0.895634607524767</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>14858</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>8391</v>
+        <v>8304</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>26161</v>
+        <v>23994</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.07561848844198715</v>
+        <v>0.07561848844198717</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.04270562279971418</v>
+        <v>0.04226101725383882</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1331409671834198</v>
+        <v>0.1221108284993669</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>35</v>
@@ -833,19 +833,19 @@
         <v>21203</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>15159</v>
+        <v>14777</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>28726</v>
+        <v>28369</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.07880084551820005</v>
+        <v>0.07880084551820006</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.0563352693318418</v>
+        <v>0.05491747783010394</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.106758793904096</v>
+        <v>0.1054292656362754</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>49</v>
@@ -854,19 +854,19 @@
         <v>36062</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>27180</v>
+        <v>26084</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>48513</v>
+        <v>49509</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.07745773901832013</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.05837970249547967</v>
+        <v>0.05602660062327668</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1042006447612738</v>
+        <v>0.1063408129836799</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>4539</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1276</v>
+        <v>1337</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>10824</v>
+        <v>10833</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.023101890623241</v>
+        <v>0.02310189062324101</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.006493171842851387</v>
+        <v>0.006804816082697254</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.05508523843236798</v>
+        <v>0.05513449445818143</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>13</v>
@@ -904,19 +904,19 @@
         <v>9623</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>5413</v>
+        <v>5058</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>17368</v>
+        <v>16792</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.03576392647659953</v>
+        <v>0.03576392647659954</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.02011623440848819</v>
+        <v>0.01879782434164993</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.06454704890317825</v>
+        <v>0.06240725787547458</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>17</v>
@@ -925,19 +925,19 @@
         <v>14163</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>8145</v>
+        <v>8518</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>22561</v>
+        <v>22879</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.03041994330655358</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.01749366737650223</v>
+        <v>0.01829633982451727</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.04845829649116119</v>
+        <v>0.04914308488776339</v>
       </c>
     </row>
     <row r="7">
@@ -957,7 +957,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>10310</v>
+        <v>10943</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01421187724909622</v>
@@ -966,7 +966,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05247104999083152</v>
+        <v>0.05569417798858135</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>11</v>
@@ -975,19 +975,19 @@
         <v>7726</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>3903</v>
+        <v>3987</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>14034</v>
+        <v>15004</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.02871131091151367</v>
+        <v>0.02871131091151368</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01450330650022573</v>
+        <v>0.01481696309885029</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05215465805721697</v>
+        <v>0.05575950122381749</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>13</v>
@@ -996,19 +996,19 @@
         <v>10518</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>6096</v>
+        <v>5590</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>19569</v>
+        <v>20169</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02259185821334395</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01309284297063049</v>
+        <v>0.01200710817288559</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04203250750580599</v>
+        <v>0.04332191230091741</v>
       </c>
     </row>
     <row r="8">
@@ -1100,19 +1100,19 @@
         <v>351367</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>333877</v>
+        <v>333421</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>364902</v>
+        <v>364795</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.8870254623621131</v>
+        <v>0.8870254623621132</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.8428727310910198</v>
+        <v>0.8417216622827384</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.921195676317589</v>
+        <v>0.920924648520329</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>586</v>
@@ -1121,19 +1121,19 @@
         <v>409859</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>395270</v>
+        <v>394449</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>421949</v>
+        <v>422459</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.8550359548318487</v>
+        <v>0.8550359548318486</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.8246013306224266</v>
+        <v>0.8228887377735097</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.8802587936573674</v>
+        <v>0.8813222225053242</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>913</v>
@@ -1142,19 +1142,19 @@
         <v>761226</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>738418</v>
+        <v>738174</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>778965</v>
+        <v>778222</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.8695101120732007</v>
+        <v>0.8695101120732009</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.8434579319817337</v>
+        <v>0.8431788646342403</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.8897734085693214</v>
+        <v>0.888924610562902</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>24388</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>14713</v>
+        <v>15481</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>39580</v>
+        <v>39715</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.06156630449442188</v>
+        <v>0.06156630449442189</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03714179009223748</v>
+        <v>0.0390819729493993</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.09991951164452154</v>
+        <v>0.100259624271951</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>62</v>
@@ -1192,19 +1192,19 @@
         <v>42898</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>31526</v>
+        <v>32972</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>54368</v>
+        <v>55521</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.08949278340760652</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0657694970731733</v>
+        <v>0.06878590440770535</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1134209485022027</v>
+        <v>0.115825513001792</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>84</v>
@@ -1213,19 +1213,19 @@
         <v>67286</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>52978</v>
+        <v>53487</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>86585</v>
+        <v>86187</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.07685700754877754</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06051393017547122</v>
+        <v>0.06109518325907968</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.09890202249184007</v>
+        <v>0.09844734460619087</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>16255</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>8780</v>
+        <v>8730</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>29726</v>
+        <v>30360</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.04103694867189892</v>
+        <v>0.04103694867189893</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.02216387650401472</v>
+        <v>0.02203768042492237</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.07504354672823094</v>
+        <v>0.07664304396373543</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>26</v>
@@ -1263,19 +1263,19 @@
         <v>16779</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>11203</v>
+        <v>11202</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>23896</v>
+        <v>24440</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.03500401856080756</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.02337224560673202</v>
+        <v>0.02336866589257578</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.04985125228590817</v>
+        <v>0.05098532973805944</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>39</v>
@@ -1284,19 +1284,19 @@
         <v>33035</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>23259</v>
+        <v>23924</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>47651</v>
+        <v>47544</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.03773371294486186</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.02656729851884787</v>
+        <v>0.02732719541926339</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.05442947902334324</v>
+        <v>0.05430690980227201</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>4108</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1043</v>
+        <v>1221</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>9849</v>
+        <v>10137</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.01037128447156605</v>
+        <v>0.01037128447156606</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.002633798233802448</v>
+        <v>0.003082847199164553</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.02486348577182865</v>
+        <v>0.02559195640894808</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>16</v>
@@ -1334,19 +1334,19 @@
         <v>9811</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>5974</v>
+        <v>5577</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>16263</v>
+        <v>15432</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.02046724319973735</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.0124630185332147</v>
+        <v>0.0116343132212687</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.03392653416010987</v>
+        <v>0.0321929463499531</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>20</v>
@@ -1355,19 +1355,19 @@
         <v>13919</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>8649</v>
+        <v>8849</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>21788</v>
+        <v>21249</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.01589916743315969</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.009878950960508868</v>
+        <v>0.01010794039077437</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.02488738007772051</v>
+        <v>0.02427154736150475</v>
       </c>
     </row>
     <row r="13">
@@ -1459,19 +1459,19 @@
         <v>351513</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>334444</v>
+        <v>334150</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>366788</v>
+        <v>366288</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.861550948128296</v>
+        <v>0.8615509481282962</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8197158000369232</v>
+        <v>0.8189941981324694</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.898990984182831</v>
+        <v>0.8977635881155449</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>534</v>
@@ -1480,19 +1480,19 @@
         <v>380002</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>366302</v>
+        <v>366664</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>391141</v>
+        <v>390931</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.8747533708062125</v>
+        <v>0.8747533708062126</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8432167379175957</v>
+        <v>0.844051345064972</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9003955163966293</v>
+        <v>0.8999131595924761</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>869</v>
@@ -1501,19 +1501,19 @@
         <v>731514</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>711668</v>
+        <v>709696</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>749109</v>
+        <v>750085</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.8683591140088741</v>
+        <v>0.8683591140088742</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8448001254314608</v>
+        <v>0.8424591034150392</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8892446254280284</v>
+        <v>0.8904036720546576</v>
       </c>
     </row>
     <row r="15">
@@ -1530,19 +1530,19 @@
         <v>49346</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>35389</v>
+        <v>35948</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>65304</v>
+        <v>66321</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.1209457666022928</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.08673691369653942</v>
+        <v>0.08810790673980685</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1600591085295346</v>
+        <v>0.1625509220650562</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>69</v>
@@ -1551,19 +1551,19 @@
         <v>48038</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>37292</v>
+        <v>37644</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>61356</v>
+        <v>62274</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1105822837166238</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.08584404043471988</v>
+        <v>0.08665477239055455</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1412401468375635</v>
+        <v>0.1433528788719771</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>113</v>
@@ -1572,19 +1572,19 @@
         <v>97384</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>79988</v>
+        <v>79504</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>116682</v>
+        <v>116104</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1156015724110111</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.09495084330539094</v>
+        <v>0.09437742489147288</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1385097875149585</v>
+        <v>0.1378235031380259</v>
       </c>
     </row>
     <row r="16">
@@ -1601,19 +1601,19 @@
         <v>5997</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2223</v>
+        <v>1919</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>14926</v>
+        <v>12919</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01469749806497242</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.00544752403688839</v>
+        <v>0.004702922749061074</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03658407831607759</v>
+        <v>0.03166452162389415</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>10</v>
@@ -1622,19 +1622,19 @@
         <v>6370</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3033</v>
+        <v>3287</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>11045</v>
+        <v>11982</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01466434547716354</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.006981182103781233</v>
+        <v>0.007565484015825606</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02542455627434157</v>
+        <v>0.02758155538572572</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>15</v>
@@ -1643,19 +1643,19 @@
         <v>12367</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>7035</v>
+        <v>6853</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>21170</v>
+        <v>20689</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01468040208776584</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.008350752938823624</v>
+        <v>0.008135157744176735</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02513078093871023</v>
+        <v>0.02455888636679398</v>
       </c>
     </row>
     <row r="17">
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>6717</v>
+        <v>6576</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.002805787204438754</v>
@@ -1684,7 +1684,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.01646285891557305</v>
+        <v>0.01611731953766196</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>0</v>
@@ -1709,7 +1709,7 @@
         <v>0</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5659</v>
+        <v>6819</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.001358911492348835</v>
@@ -1718,7 +1718,7 @@
         <v>0</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.006717648985229651</v>
+        <v>0.008094070286055534</v>
       </c>
     </row>
     <row r="18">
@@ -1810,19 +1810,19 @@
         <v>496518</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>477404</v>
+        <v>477585</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>510099</v>
+        <v>509866</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.9055218589035287</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.8706643225910229</v>
+        <v>0.8709933278275839</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.9302913761279905</v>
+        <v>0.9298656072362593</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>589</v>
@@ -1831,19 +1831,19 @@
         <v>442210</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>429392</v>
+        <v>428593</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>454051</v>
+        <v>453768</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.8868916178952182</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.8611831828420505</v>
+        <v>0.8595810870183298</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.910638694742293</v>
+        <v>0.9100705375811056</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>1050</v>
@@ -1852,19 +1852,19 @@
         <v>938728</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>915194</v>
+        <v>918711</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>958555</v>
+        <v>957963</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.8966490852859316</v>
+        <v>0.8966490852859315</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.8741698193710499</v>
+        <v>0.8775293138381076</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.9155873576313199</v>
+        <v>0.9150218112432986</v>
       </c>
     </row>
     <row r="20">
@@ -1881,19 +1881,19 @@
         <v>47021</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>34295</v>
+        <v>32996</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>67090</v>
+        <v>64776</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.08575513041955027</v>
+        <v>0.08575513041955028</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.06254485654041343</v>
+        <v>0.06017691249283579</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1223559281654322</v>
+        <v>0.1181356284770853</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>70</v>
@@ -1902,19 +1902,19 @@
         <v>45899</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>35811</v>
+        <v>35611</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>56687</v>
+        <v>57870</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.09205379592123542</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.07182120529235071</v>
+        <v>0.07142087679834229</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.113690773646664</v>
+        <v>0.1160626566640016</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>110</v>
@@ -1923,19 +1923,19 @@
         <v>92920</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>75746</v>
+        <v>75131</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>114129</v>
+        <v>111858</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.08875491088747291</v>
+        <v>0.08875491088747289</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.07235036929397452</v>
+        <v>0.07176294485453735</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1090128421253504</v>
+        <v>0.1068438671410533</v>
       </c>
     </row>
     <row r="21">
@@ -1952,19 +1952,19 @@
         <v>4197</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>947</v>
+        <v>1431</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>12199</v>
+        <v>12646</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.007654685569119574</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.001727791266154514</v>
+        <v>0.002609870222320887</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.02224781018345905</v>
+        <v>0.02306336560047866</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>8</v>
@@ -1973,19 +1973,19 @@
         <v>7782</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>2974</v>
+        <v>2955</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>17891</v>
+        <v>17717</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.01560724491004088</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.005963777799572009</v>
+        <v>0.00592725115471343</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.03588245081391477</v>
+        <v>0.03553375645729825</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>12</v>
@@ -1994,19 +1994,19 @@
         <v>11979</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>6038</v>
+        <v>5993</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>22178</v>
+        <v>23171</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.01144214374966733</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.005767512581673342</v>
+        <v>0.005724621638495097</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.0211840770967222</v>
+        <v>0.02213270615986896</v>
       </c>
     </row>
     <row r="22">
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>3867</v>
+        <v>3045</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.00106832510780157</v>
@@ -2035,7 +2035,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.007051935834735566</v>
+        <v>0.005552891557472886</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>4</v>
@@ -2044,19 +2044,19 @@
         <v>2716</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>6367</v>
+        <v>6412</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.005447341273505553</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.001326109934763342</v>
+        <v>0.001320151661484596</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01276882127966858</v>
+        <v>0.01286059640507476</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>5</v>
@@ -2065,19 +2065,19 @@
         <v>3302</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1256</v>
+        <v>1239</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>7805</v>
+        <v>7310</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.00315386007692825</v>
+        <v>0.003153860076928249</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.001200062166250456</v>
+        <v>0.001183503908798315</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.007455376459122164</v>
+        <v>0.006982686328417075</v>
       </c>
     </row>
     <row r="23">
@@ -2169,19 +2169,19 @@
         <v>1373699</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1342520</v>
+        <v>1340737</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1400729</v>
+        <v>1398413</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.88686838344236</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.8667394569054295</v>
+        <v>0.8655881512261225</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.9043193891475685</v>
+        <v>0.9028240294830552</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>2027</v>
@@ -2190,19 +2190,19 @@
         <v>1462595</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>1435416</v>
+        <v>1437063</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>1484383</v>
+        <v>1487251</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.8698465194550555</v>
+        <v>0.8698465194550554</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.8536826486701236</v>
+        <v>0.8546622315781379</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.8828046122331761</v>
+        <v>0.8845101050356345</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>3318</v>
@@ -2211,19 +2211,19 @@
         <v>2836294</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>2798117</v>
+        <v>2795135</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>2874009</v>
+        <v>2872580</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.8780083370732419</v>
+        <v>0.878008337073242</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.8661900191825403</v>
+        <v>0.8652669472403408</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.8896834790489773</v>
+        <v>0.8892408301694812</v>
       </c>
     </row>
     <row r="25">
@@ -2240,19 +2240,19 @@
         <v>135613</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>111789</v>
+        <v>112472</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>163154</v>
+        <v>164014</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.08755273832549809</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.07217179929726963</v>
+        <v>0.07261269404496573</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1053333884948096</v>
+        <v>0.105888584435609</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>236</v>
@@ -2261,19 +2261,19 @@
         <v>158038</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>141079</v>
+        <v>136469</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>183213</v>
+        <v>179939</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.09398980866282192</v>
+        <v>0.0939898086628219</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.08390390174671029</v>
+        <v>0.08116188270202145</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.108961922697469</v>
+        <v>0.1070148385292731</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>356</v>
@@ -2282,19 +2282,19 @@
         <v>293652</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>261583</v>
+        <v>261200</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>328778</v>
+        <v>329532</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.09090329627335271</v>
+        <v>0.09090329627335272</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.08097622533540845</v>
+        <v>0.08085759637591357</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1017771028585574</v>
+        <v>0.1020103976532377</v>
       </c>
     </row>
     <row r="26">
@@ -2311,19 +2311,19 @@
         <v>30989</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>19817</v>
+        <v>19780</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>46509</v>
+        <v>45694</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.02000644363071965</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.0127942804284685</v>
+        <v>0.01277001278933355</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.03002631503179602</v>
+        <v>0.02950052445397632</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>57</v>
@@ -2332,19 +2332,19 @@
         <v>40555</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>30543</v>
+        <v>30072</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>53633</v>
+        <v>53404</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.02411891855260004</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.01816468941319561</v>
+        <v>0.01788448330132559</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.03189694352973543</v>
+        <v>0.03176096547327518</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>83</v>
@@ -2353,19 +2353,19 @@
         <v>71543</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>55063</v>
+        <v>56170</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>90190</v>
+        <v>90887</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.0221470269726422</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.01704552453549453</v>
+        <v>0.01738802500765737</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.02791934983457851</v>
+        <v>0.02813501662014931</v>
       </c>
     </row>
     <row r="27">
@@ -2382,19 +2382,19 @@
         <v>8631</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>3750</v>
+        <v>4267</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>18049</v>
+        <v>17471</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.005572434601422323</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.002421252534703052</v>
+        <v>0.002755009736517579</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.01165231881302225</v>
+        <v>0.01127910087775433</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>31</v>
@@ -2403,19 +2403,19 @@
         <v>20253</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>13712</v>
+        <v>14040</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>29147</v>
+        <v>28793</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.01204475332952261</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.008154847631367375</v>
+        <v>0.008349738688579527</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.01733429246866372</v>
+        <v>0.01712379062439342</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>39</v>
@@ -2424,19 +2424,19 @@
         <v>28884</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>19550</v>
+        <v>21208</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>40505</v>
+        <v>39788</v>
       </c>
       <c r="U27" s="6" t="n">
-        <v>0.008941339680763202</v>
+        <v>0.008941339680763204</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.006051959620845382</v>
+        <v>0.006565318412499593</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.0125387684066205</v>
+        <v>0.01231692398005154</v>
       </c>
     </row>
     <row r="28">
